--- a/raw_data/20200818_saline/20200818_Sensor0_Test_16.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_16.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E2711-853C-4598-9E79-1F8A629CEE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>13503.162754</v>
+        <v>13503.162754000001</v>
       </c>
       <c r="B2" s="1">
-        <v>3.750879</v>
+        <v>3.7508789999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>902.025000</v>
+        <v>902.02499999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.115000</v>
+        <v>-195.11500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>13513.560373</v>
       </c>
       <c r="G2" s="1">
-        <v>3.753767</v>
+        <v>3.7537669999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>918.415000</v>
+        <v>918.41499999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.281000</v>
+        <v>-165.28100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>13524.068119</v>
       </c>
       <c r="L2" s="1">
-        <v>3.756686</v>
+        <v>3.7566860000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>940.784000</v>
+        <v>940.78399999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.274000</v>
+        <v>-118.274</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>13534.563498</v>
@@ -526,13 +942,13 @@
         <v>3.759601</v>
       </c>
       <c r="R2" s="1">
-        <v>947.036000</v>
+        <v>947.03599999999994</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.199000</v>
+        <v>-103.199</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>13545.133211</v>
@@ -541,196 +957,196 @@
         <v>3.762537</v>
       </c>
       <c r="W2" s="1">
-        <v>953.353000</v>
+        <v>953.35299999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.684600</v>
+        <v>-89.684600000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>13555.621155</v>
+        <v>13555.621155000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.765450</v>
+        <v>3.76545</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.487000</v>
+        <v>960.48699999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.463500</v>
+        <v>-80.463499999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>13566.517727</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.768477</v>
+        <v>3.7684769999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.455000</v>
+        <v>965.45500000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.146700</v>
+        <v>-80.146699999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>13576.946114</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.771374</v>
+        <v>3.7713739999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.458000</v>
+        <v>973.45799999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.229200</v>
+        <v>-88.229200000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>13587.543141</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.774318</v>
+        <v>3.7743180000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.760000</v>
+        <v>982.76</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.394000</v>
+        <v>-103.39400000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>13598.515141</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.777365</v>
+        <v>3.7773650000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.313000</v>
+        <v>994.31299999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.263000</v>
+        <v>-125.26300000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>13609.701416</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.780473</v>
+        <v>3.7804730000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.116000</v>
+        <v>-144.11600000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>13620.676925</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.783521</v>
+        <v>3.7835209999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.870000</v>
+        <v>1049.8699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.731000</v>
+        <v>-229.73099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>13631.055675</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.786404</v>
+        <v>3.7864040000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.790000</v>
+        <v>1129.79</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.026000</v>
+        <v>-367.02600000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>13642.106075</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.789474</v>
+        <v>3.7894739999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.000000</v>
+        <v>1262</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-579.627000</v>
+        <v>-579.62699999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>13652.429806</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.792342</v>
+        <v>3.7923420000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="BV2" s="1">
-        <v>-807.393000</v>
+        <v>-807.39300000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>13663.191007</v>
+        <v>13663.191006999999</v>
       </c>
       <c r="BY2" s="1">
         <v>3.795331</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1574.660000</v>
+        <v>1574.66</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1044.680000</v>
+        <v>-1044.68</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>13674.102961</v>
+        <v>13674.102961000001</v>
       </c>
       <c r="CD2" s="1">
         <v>3.798362</v>
       </c>
       <c r="CE2" s="1">
-        <v>1990.280000</v>
+        <v>1990.28</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1597.870000</v>
+        <v>-1597.87</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>13503.558051</v>
       </c>
@@ -738,28 +1154,28 @@
         <v>3.750988</v>
       </c>
       <c r="C3" s="1">
-        <v>901.926000</v>
+        <v>901.92600000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.960000</v>
+        <v>-194.96</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>13513.972588</v>
+        <v>13513.972588000001</v>
       </c>
       <c r="G3" s="1">
-        <v>3.753881</v>
+        <v>3.7538809999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>918.764000</v>
+        <v>918.76400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.959000</v>
+        <v>-164.959</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>13524.429704</v>
@@ -768,163 +1184,163 @@
         <v>3.756786</v>
       </c>
       <c r="M3" s="1">
-        <v>940.855000</v>
+        <v>940.85500000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.346000</v>
+        <v>-118.346</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>13534.935961</v>
+        <v>13534.935960999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.759704</v>
+        <v>3.7597040000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>947.114000</v>
+        <v>947.11400000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.210000</v>
+        <v>-103.21</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>13545.516620</v>
+        <v>13545.51662</v>
       </c>
       <c r="V3" s="1">
-        <v>3.762644</v>
+        <v>3.7626439999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>953.399000</v>
+        <v>953.399</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.694200</v>
+        <v>-89.694199999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>13556.351725</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.765653</v>
+        <v>3.7656529999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.536000</v>
+        <v>960.53599999999994</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.378700</v>
+        <v>-80.378699999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>13566.895183</v>
+        <v>13566.895183000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.768582</v>
+        <v>3.7685819999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.447000</v>
+        <v>965.447</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.184000</v>
+        <v>-80.183999999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>13577.335473</v>
+        <v>13577.335472999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.771482</v>
+        <v>3.7714819999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.454000</v>
+        <v>973.45399999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.216500</v>
+        <v>-88.216499999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>13587.925555</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.774424</v>
+        <v>3.7744239999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.748000</v>
+        <v>982.74800000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.413000</v>
+        <v>-103.413</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>13599.225412</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.777563</v>
+        <v>3.7775629999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.326000</v>
+        <v>994.32600000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.245000</v>
+        <v>-125.245</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>13610.371017</v>
+        <v>13610.371016999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>3.780659</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.117000</v>
+        <v>-144.11699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>13621.111410</v>
+        <v>13621.11141</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.783642</v>
+        <v>3.7836419999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.850000</v>
+        <v>1049.8499999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.725000</v>
+        <v>-229.72499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>13631.437099</v>
+        <v>13631.437099000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.786510</v>
+        <v>3.7865099999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.830000</v>
+        <v>1129.83</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.041000</v>
+        <v>-367.041</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>13642.544011</v>
@@ -933,195 +1349,195 @@
         <v>3.789596</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.990000</v>
+        <v>1261.99</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-579.624000</v>
+        <v>-579.62400000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>13652.893037</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.792470</v>
+        <v>3.7924699999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="BV3" s="1">
-        <v>-807.387000</v>
+        <v>-807.38699999999994</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>13663.656223</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.795460</v>
+        <v>3.7954599999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1574.660000</v>
+        <v>1574.66</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1044.690000</v>
+        <v>-1044.69</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>13674.672369</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.798520</v>
+        <v>3.7985199999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1990.520000</v>
+        <v>1990.52</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1597.900000</v>
+        <v>-1597.9</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>13503.898307</v>
+        <v>13503.898306999999</v>
       </c>
       <c r="B4" s="1">
-        <v>3.751083</v>
+        <v>3.7510829999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>901.999000</v>
+        <v>901.99900000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.033000</v>
+        <v>-195.03299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>13514.346854</v>
+        <v>13514.346853999999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.753985</v>
+        <v>3.7539850000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>918.946000</v>
+        <v>918.94600000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.396000</v>
+        <v>-165.39599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>13524.770983</v>
       </c>
       <c r="L4" s="1">
-        <v>3.756881</v>
+        <v>3.7568809999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>940.635000</v>
+        <v>940.63499999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.395000</v>
+        <v>-118.395</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>13535.631351</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.759898</v>
+        <v>3.7598980000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>947.120000</v>
+        <v>947.12</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.210000</v>
+        <v>-103.21</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>13546.203578</v>
+        <v>13546.203578000001</v>
       </c>
       <c r="V4" s="1">
-        <v>3.762834</v>
+        <v>3.7628339999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>953.405000</v>
+        <v>953.40499999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.596200</v>
+        <v>-89.596199999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>13556.700413</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.765750</v>
+        <v>3.7657500000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.512000</v>
+        <v>960.51199999999994</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.331000</v>
+        <v>-80.331000000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>13567.236430</v>
+        <v>13567.236430000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.768677</v>
+        <v>3.7686769999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.482000</v>
+        <v>965.48199999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.148200</v>
+        <v>-80.148200000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>13577.681184</v>
+        <v>13577.681183999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.771578</v>
+        <v>3.7715779999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.465000</v>
+        <v>973.46500000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.193300</v>
+        <v>-88.193299999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>13588.602130</v>
+        <v>13588.602129999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.774612</v>
+        <v>3.7746119999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.784000</v>
+        <v>982.78399999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.405000</v>
+        <v>-103.405</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>13599.664867</v>
@@ -1130,103 +1546,103 @@
         <v>3.777685</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.322000</v>
+        <v>994.322</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.234000</v>
+        <v>-125.23399999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>13610.780710</v>
+        <v>13610.780710000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.780772</v>
+        <v>3.7807719999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.102000</v>
+        <v>-144.102</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>13621.472472</v>
+        <v>13621.472471999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.783742</v>
+        <v>3.7837420000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.726000</v>
+        <v>-229.726</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>13631.811080</v>
+        <v>13631.811079999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.786614</v>
+        <v>3.7866140000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.046000</v>
+        <v>-367.04599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>13642.941306</v>
+        <v>13642.941306000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.789706</v>
+        <v>3.7897059999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.060000</v>
+        <v>1262.06</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.645000</v>
+        <v>-579.64499999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>13653.327036</v>
+        <v>13653.327036000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.792591</v>
+        <v>3.7925909999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1410.460000</v>
+        <v>1410.46</v>
       </c>
       <c r="BV4" s="1">
-        <v>-807.437000</v>
+        <v>-807.43700000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>13664.101663</v>
+        <v>13664.101662999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.795584</v>
+        <v>3.7955839999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1574.460000</v>
+        <v>1574.46</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1044.740000</v>
+        <v>-1044.74</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>13675.190191</v>
@@ -1235,60 +1651,60 @@
         <v>3.798664</v>
       </c>
       <c r="CE4" s="1">
-        <v>1988.880000</v>
+        <v>1988.88</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1598.000000</v>
+        <v>-1598</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>13504.241073</v>
+        <v>13504.241072999999</v>
       </c>
       <c r="B5" s="1">
-        <v>3.751178</v>
+        <v>3.7511779999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>901.846000</v>
+        <v>901.846</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.028000</v>
+        <v>-195.02799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>13514.977939</v>
       </c>
       <c r="G5" s="1">
-        <v>3.754161</v>
+        <v>3.7541609999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>919.035000</v>
+        <v>919.03499999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.205000</v>
+        <v>-165.20500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>13525.461893</v>
       </c>
       <c r="L5" s="1">
-        <v>3.757073</v>
+        <v>3.7570730000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>940.720000</v>
+        <v>940.72</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.527000</v>
+        <v>-118.527</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>13535.983016</v>
@@ -1297,43 +1713,43 @@
         <v>3.759995</v>
       </c>
       <c r="R5" s="1">
-        <v>947.092000</v>
+        <v>947.09199999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>13546.549787</v>
       </c>
       <c r="V5" s="1">
-        <v>3.762930</v>
+        <v>3.7629299999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>953.436000</v>
+        <v>953.43600000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.679000</v>
+        <v>-89.679000000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>13557.050588</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.765847</v>
+        <v>3.7658469999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.480000</v>
+        <v>960.48</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.360700</v>
+        <v>-80.360699999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>13567.891646</v>
@@ -1342,345 +1758,345 @@
         <v>3.768859</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.425000</v>
+        <v>965.42499999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.170400</v>
+        <v>-80.170400000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>13578.341128</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.771761</v>
+        <v>3.7717610000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.470000</v>
+        <v>973.47</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.215700</v>
+        <v>-88.215699999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>13589.023697</v>
+        <v>13589.023697000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.774729</v>
+        <v>3.7747289999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.772000</v>
+        <v>982.77200000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.413000</v>
+        <v>-103.413</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>13600.030915</v>
+        <v>13600.030914999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.777786</v>
+        <v>3.7777859999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.304000</v>
+        <v>994.30399999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.233000</v>
+        <v>-125.233</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>13611.165606</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.780879</v>
+        <v>3.7808790000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.119000</v>
+        <v>-144.119</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>13621.834550</v>
+        <v>13621.83455</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.783843</v>
+        <v>3.7838430000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.722000</v>
+        <v>-229.72200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>13632.222794</v>
+        <v>13632.222793999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.786729</v>
+        <v>3.7867289999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.050000</v>
+        <v>-367.05</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>13643.362447</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.789823</v>
+        <v>3.7898230000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.990000</v>
+        <v>1261.99</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.667000</v>
+        <v>-579.66700000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>13653.738221</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.792705</v>
+        <v>3.7927050000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1410.440000</v>
+        <v>1410.44</v>
       </c>
       <c r="BV5" s="1">
-        <v>-807.415000</v>
+        <v>-807.41499999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>13664.533646</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.795704</v>
+        <v>3.7957040000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1574.590000</v>
+        <v>1574.59</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1044.820000</v>
+        <v>-1044.82</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>13675.709007</v>
+        <v>13675.709006999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.798808</v>
+        <v>3.7988080000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1989.290000</v>
+        <v>1989.29</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1598.060000</v>
+        <v>-1598.06</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>13504.925520</v>
+        <v>13504.925520000001</v>
       </c>
       <c r="B6" s="1">
-        <v>3.751368</v>
+        <v>3.7513679999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>902.083000</v>
+        <v>902.08299999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.174000</v>
+        <v>-195.17400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>13515.372259</v>
       </c>
       <c r="G6" s="1">
-        <v>3.754270</v>
+        <v>3.75427</v>
       </c>
       <c r="H6" s="1">
-        <v>918.500000</v>
+        <v>918.5</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.560000</v>
+        <v>-165.56</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>13525.809573</v>
       </c>
       <c r="L6" s="1">
-        <v>3.757169</v>
+        <v>3.7571690000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>940.489000</v>
+        <v>940.48900000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.318000</v>
+        <v>-118.318</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>13536.331735</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.760092</v>
+        <v>3.7600920000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>947.048000</v>
+        <v>947.048</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.198000</v>
+        <v>-103.19799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>13546.893514</v>
+        <v>13546.893513999999</v>
       </c>
       <c r="V6" s="1">
         <v>3.763026</v>
       </c>
       <c r="W6" s="1">
-        <v>953.396000</v>
+        <v>953.39599999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.581700</v>
+        <v>-89.581699999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>13557.711259</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.766031</v>
+        <v>3.7660309999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.498000</v>
+        <v>960.49800000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.376300</v>
+        <v>-80.376300000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>13568.267612</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.768963</v>
+        <v>3.7689629999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.468000</v>
+        <v>965.46799999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.187400</v>
+        <v>-80.187399999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>13578.730752</v>
+        <v>13578.730751999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.771870</v>
+        <v>3.7718699999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.474000</v>
+        <v>973.47400000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.197400</v>
+        <v>-88.197400000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>13589.381345</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.774828</v>
+        <v>3.7748279999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.780000</v>
+        <v>982.78</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.408000</v>
+        <v>-103.408</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>13600.397954</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.777888</v>
+        <v>3.7778879999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.332000</v>
+        <v>994.33199999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.243000</v>
+        <v>-125.24299999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>13611.544548</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.780985</v>
+        <v>3.7809849999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.080000</v>
+        <v>1004.08</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.120000</v>
+        <v>-144.12</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>13622.255653</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.783960</v>
+        <v>3.78396</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.850000</v>
+        <v>1049.8499999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.734000</v>
+        <v>-229.73400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>13632.585847</v>
@@ -1689,13 +2105,13 @@
         <v>3.786829</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.041000</v>
+        <v>-367.041</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>13643.758248</v>
@@ -1704,43 +2120,43 @@
         <v>3.789933</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.980000</v>
+        <v>1261.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-579.692000</v>
+        <v>-579.69200000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>13654.163819</v>
+        <v>13654.163818999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.792823</v>
+        <v>3.7928229999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="BV6" s="1">
-        <v>-807.344000</v>
+        <v>-807.34400000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>13664.958716</v>
+        <v>13664.958715999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.795822</v>
+        <v>3.7958219999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1574.690000</v>
+        <v>1574.69</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1044.750000</v>
+        <v>-1044.75</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>13676.262079</v>
@@ -1749,45 +2165,45 @@
         <v>3.798962</v>
       </c>
       <c r="CE6" s="1">
-        <v>1990.540000</v>
+        <v>1990.54</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1598.650000</v>
+        <v>-1598.65</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>13505.270272</v>
       </c>
       <c r="B7" s="1">
-        <v>3.751464</v>
+        <v>3.7514639999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>901.819000</v>
+        <v>901.81899999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.943000</v>
+        <v>-194.94300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>13515.719955</v>
       </c>
       <c r="G7" s="1">
-        <v>3.754367</v>
+        <v>3.7543669999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>918.621000</v>
+        <v>918.62099999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.190000</v>
+        <v>-165.19</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>13526.156277</v>
@@ -1796,148 +2212,148 @@
         <v>3.757266</v>
       </c>
       <c r="M7" s="1">
-        <v>940.811000</v>
+        <v>940.81100000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.172000</v>
+        <v>-118.172</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>13536.988934</v>
+        <v>13536.988934000001</v>
       </c>
       <c r="Q7" s="1">
         <v>3.760275</v>
       </c>
       <c r="R7" s="1">
-        <v>947.042000</v>
+        <v>947.04200000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.162000</v>
+        <v>-103.16200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>13547.533850</v>
+        <v>13547.53385</v>
       </c>
       <c r="V7" s="1">
         <v>3.763204</v>
       </c>
       <c r="W7" s="1">
-        <v>953.337000</v>
+        <v>953.33699999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.584600</v>
+        <v>-89.584599999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>13558.094667</v>
+        <v>13558.094666999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.766137</v>
+        <v>3.7661370000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.544000</v>
+        <v>960.54399999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.360300</v>
+        <v>-80.360299999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>13568.611836</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.769059</v>
+        <v>3.7690589999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.456000</v>
+        <v>965.45600000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.188700</v>
+        <v>-80.188699999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>13579.080436</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.771967</v>
+        <v>3.7719670000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.484000</v>
+        <v>973.48400000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.196900</v>
+        <v>-88.196899999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>13589.742929</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.774929</v>
+        <v>3.7749290000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.785000</v>
+        <v>982.78499999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.415000</v>
+        <v>-103.41500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>13600.815586</v>
+        <v>13600.815586000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.778004</v>
+        <v>3.7780040000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.314000</v>
+        <v>994.31399999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.223000</v>
+        <v>-125.223</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>13611.981027</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.781106</v>
+        <v>3.7811059999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.119000</v>
+        <v>-144.119</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>13622.554743</v>
+        <v>13622.554743000001</v>
       </c>
       <c r="BE7" s="1">
         <v>3.784043</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.698000</v>
+        <v>-229.69800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>13632.960808</v>
@@ -1946,452 +2362,452 @@
         <v>3.786934</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.033000</v>
+        <v>-367.03300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>13644.179849</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.790050</v>
+        <v>3.7900499999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.990000</v>
+        <v>1261.99</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.707000</v>
+        <v>-579.70699999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>13654.598811</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.792944</v>
+        <v>3.7929439999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.400000</v>
+        <v>1410.4</v>
       </c>
       <c r="BV7" s="1">
-        <v>-807.326000</v>
+        <v>-807.32600000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>13665.386769</v>
+        <v>13665.386769000001</v>
       </c>
       <c r="BY7" s="1">
         <v>3.795941</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1574.670000</v>
+        <v>1574.67</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1044.820000</v>
+        <v>-1044.82</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>13676.789789</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.799108</v>
+        <v>3.7991079999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1989.130000</v>
+        <v>1989.13</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1598.100000</v>
+        <v>-1598.1</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>13505.621935</v>
+        <v>13505.621934999999</v>
       </c>
       <c r="B8" s="1">
-        <v>3.751562</v>
+        <v>3.7515619999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>901.977000</v>
+        <v>901.97699999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.915000</v>
+        <v>-194.91499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>13516.369217</v>
+        <v>13516.369216999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3.754547</v>
+        <v>3.7545470000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>918.707000</v>
+        <v>918.70699999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.127000</v>
+        <v>-165.12700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>13526.818438</v>
       </c>
       <c r="L8" s="1">
-        <v>3.757450</v>
+        <v>3.75745</v>
       </c>
       <c r="M8" s="1">
-        <v>940.599000</v>
+        <v>940.59900000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.261000</v>
+        <v>-118.261</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>13537.374331</v>
+        <v>13537.374331000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.760382</v>
+        <v>3.7603819999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>947.063000</v>
+        <v>947.06299999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.168000</v>
+        <v>-103.16800000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>13547.930184</v>
+        <v>13547.930184000001</v>
       </c>
       <c r="V8" s="1">
-        <v>3.763314</v>
+        <v>3.7633139999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>953.393000</v>
+        <v>953.39300000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.634400</v>
+        <v>-89.634399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>13558.444842</v>
+        <v>13558.444842000001</v>
       </c>
       <c r="AA8" s="1">
         <v>3.766235</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.563000</v>
+        <v>960.56299999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.360100</v>
+        <v>-80.360100000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>13568.955564</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.769154</v>
+        <v>3.7691539999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.447000</v>
+        <v>965.447</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.180800</v>
+        <v>-80.180800000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>13579.429086</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.772064</v>
+        <v>3.7720639999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.460000</v>
+        <v>973.46</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.215600</v>
+        <v>-88.215599999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>13590.174913</v>
+        <v>13590.174913000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.775049</v>
+        <v>3.7750490000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.761000</v>
+        <v>982.76099999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.411000</v>
+        <v>-103.411</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>13601.126577</v>
+        <v>13601.126577000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.778091</v>
+        <v>3.7780909999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.293000</v>
+        <v>994.29300000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.208000</v>
+        <v>-125.208</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>13612.264246</v>
+        <v>13612.264246000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.781185</v>
+        <v>3.7811849999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.108000</v>
+        <v>-144.108</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>13622.918309</v>
+        <v>13622.918309000001</v>
       </c>
       <c r="BE8" s="1">
         <v>3.784144</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.860000</v>
+        <v>1049.8599999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.734000</v>
+        <v>-229.73400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>13633.336278</v>
+        <v>13633.336278000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.787038</v>
+        <v>3.7870379999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.790000</v>
+        <v>1129.79</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.029000</v>
+        <v>-367.029</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>13644.575161</v>
+        <v>13644.575161000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.790160</v>
+        <v>3.7901600000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.010000</v>
+        <v>1262.01</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.690000</v>
+        <v>-579.69000000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>13655.023354</v>
+        <v>13655.023354000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.793062</v>
+        <v>3.7930619999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.350000</v>
+        <v>1410.35</v>
       </c>
       <c r="BV8" s="1">
-        <v>-807.249000</v>
+        <v>-807.24900000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>13665.832668</v>
+        <v>13665.832667999999</v>
       </c>
       <c r="BY8" s="1">
         <v>3.796065</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.530000</v>
+        <v>1574.53</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1044.790000</v>
+        <v>-1044.79</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>13677.313068</v>
+        <v>13677.313067999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.799254</v>
+        <v>3.7992539999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1989.220000</v>
+        <v>1989.22</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1600.100000</v>
+        <v>-1600.1</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>13506.265214</v>
+        <v>13506.265213999999</v>
       </c>
       <c r="B9" s="1">
-        <v>3.751740</v>
+        <v>3.7517399999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>902.081000</v>
+        <v>902.08100000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.927000</v>
+        <v>-194.92699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>13516.751633</v>
       </c>
       <c r="G9" s="1">
-        <v>3.754653</v>
+        <v>3.7546529999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>918.811000</v>
+        <v>918.81100000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.179000</v>
+        <v>-165.179</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>13527.192457</v>
+        <v>13527.192456999999</v>
       </c>
       <c r="L9" s="1">
-        <v>3.757553</v>
+        <v>3.7575530000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>940.531000</v>
+        <v>940.53099999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.343000</v>
+        <v>-118.343</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>13537.725494</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.760479</v>
+        <v>3.7604790000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>947.070000</v>
+        <v>947.07</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.222000</v>
+        <v>-103.22199999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>13548.278840</v>
+        <v>13548.278840000001</v>
       </c>
       <c r="V9" s="1">
-        <v>3.763411</v>
+        <v>3.7634110000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.361000</v>
+        <v>953.36099999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.673300</v>
+        <v>-89.673299999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>13558.791049</v>
+        <v>13558.791048999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.766331</v>
+        <v>3.7663310000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.568000</v>
+        <v>960.56799999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.431200</v>
+        <v>-80.431200000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>13569.375678</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.769271</v>
+        <v>3.7692709999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.445000</v>
+        <v>965.44500000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.133000</v>
+        <v>-80.132999999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>13579.877967</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.772188</v>
+        <v>3.7721879999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.450000</v>
+        <v>973.45</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.220000</v>
+        <v>-88.22</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>13590.462592</v>
@@ -2400,195 +2816,195 @@
         <v>3.775128</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.786000</v>
+        <v>982.78599999999994</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.414000</v>
+        <v>-103.414</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>13601.488172</v>
+        <v>13601.488171999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.778191</v>
+        <v>3.7781910000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.330000</v>
+        <v>994.33</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.181000</v>
+        <v>-125.181</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>13612.621863</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.781284</v>
+        <v>3.7812839999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.134000</v>
+        <v>-144.13399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>13623.278404</v>
+        <v>13623.278404000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.784244</v>
+        <v>3.7842440000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.697000</v>
+        <v>-229.697</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>13634.085244</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.787246</v>
+        <v>3.7872460000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.036000</v>
+        <v>-367.036</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>13645.002679</v>
+        <v>13645.002678999999</v>
       </c>
       <c r="BO9" s="1">
         <v>3.790279</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.050000</v>
+        <v>1262.05</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.677000</v>
+        <v>-579.67700000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>13655.439036</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.793178</v>
+        <v>3.7931780000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.420000</v>
+        <v>1410.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-807.172000</v>
+        <v>-807.17200000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>13666.282539</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.796190</v>
+        <v>3.7961900000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1044.800000</v>
+        <v>-1044.8</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>13677.851724</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.799403</v>
+        <v>3.7994029999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1990.400000</v>
+        <v>1990.4</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1597.800000</v>
+        <v>-1597.8</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>13506.647462</v>
+        <v>13506.647462000001</v>
       </c>
       <c r="B10" s="1">
-        <v>3.751847</v>
+        <v>3.7518470000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>902.028000</v>
+        <v>902.02800000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.012000</v>
+        <v>-195.012</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>13517.096700</v>
+        <v>13517.0967</v>
       </c>
       <c r="G10" s="1">
-        <v>3.754749</v>
+        <v>3.7547489999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>918.669000</v>
+        <v>918.66899999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.959000</v>
+        <v>-164.959</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>13527.535651</v>
       </c>
       <c r="L10" s="1">
-        <v>3.757649</v>
+        <v>3.7576489999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>940.456000</v>
+        <v>940.45600000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.297000</v>
+        <v>-118.297</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>13538.077138</v>
+        <v>13538.077138000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.760577</v>
+        <v>3.7605770000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>947.074000</v>
+        <v>947.07399999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.235000</v>
+        <v>-103.235</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>13548.701464</v>
@@ -2597,210 +3013,210 @@
         <v>3.763528</v>
       </c>
       <c r="W10" s="1">
-        <v>953.365000</v>
+        <v>953.36500000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.601500</v>
+        <v>-89.601500000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>13559.226163</v>
+        <v>13559.226162999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.766452</v>
+        <v>3.7664520000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.446000</v>
+        <v>960.44600000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.410200</v>
+        <v>-80.410200000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>13569.665341</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.769351</v>
+        <v>3.7693509999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.452000</v>
+        <v>965.452</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.134100</v>
+        <v>-80.134100000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>13580.163694</v>
+        <v>13580.163694000001</v>
       </c>
       <c r="AK10" s="1">
         <v>3.772268</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.475000</v>
+        <v>973.47500000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.218400</v>
+        <v>-88.218400000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>13590.825200</v>
+        <v>13590.825199999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.775229</v>
+        <v>3.7752289999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.786000</v>
+        <v>982.78599999999994</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.402000</v>
+        <v>-103.402</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>13601.852721</v>
+        <v>13601.852720999999</v>
       </c>
       <c r="AU10" s="1">
         <v>3.778292</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.349000</v>
+        <v>994.34900000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.178000</v>
+        <v>-125.178</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>13613.170446</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.781436</v>
+        <v>3.7814359999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.133000</v>
+        <v>-144.13300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>13624.000116</v>
+        <v>13624.000115999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.784444</v>
+        <v>3.7844440000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.860000</v>
+        <v>1049.8599999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.737000</v>
+        <v>-229.73699999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>13634.461734</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.787350</v>
+        <v>3.78735</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.023000</v>
+        <v>-367.02300000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>13645.404972</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.790390</v>
+        <v>3.7903899999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.980000</v>
+        <v>1261.98</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.695000</v>
+        <v>-579.69500000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>13655.865065</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.793296</v>
+        <v>3.7932959999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1410.390000</v>
+        <v>1410.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-807.208000</v>
+        <v>-807.20799999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>13667.029050</v>
+        <v>13667.029049999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.796397</v>
+        <v>3.7963969999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1574.610000</v>
+        <v>1574.61</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1044.780000</v>
+        <v>-1044.78</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>13678.740555</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.799650</v>
+        <v>3.7996500000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1990.240000</v>
+        <v>1990.24</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1599.960000</v>
+        <v>-1599.96</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>13506.993342</v>
       </c>
       <c r="B11" s="1">
-        <v>3.751943</v>
+        <v>3.7519429999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>901.793000</v>
+        <v>901.79300000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.036000</v>
+        <v>-195.036</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>13517.440578</v>
@@ -2809,498 +3225,498 @@
         <v>3.754845</v>
       </c>
       <c r="H11" s="1">
-        <v>919.002000</v>
+        <v>919.00199999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.094000</v>
+        <v>-165.09399999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>13527.882850</v>
+        <v>13527.88285</v>
       </c>
       <c r="L11" s="1">
-        <v>3.757745</v>
+        <v>3.7577449999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>940.585000</v>
+        <v>940.58500000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.304000</v>
+        <v>-118.304</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>13538.501204</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.760695</v>
+        <v>3.7606950000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>947.031000</v>
+        <v>947.03099999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.208000</v>
+        <v>-103.208</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>13548.980711</v>
       </c>
       <c r="V11" s="1">
-        <v>3.763606</v>
+        <v>3.7636059999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>953.404000</v>
+        <v>953.404</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.679000</v>
+        <v>-89.679000000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>13559.492394</v>
+        <v>13559.492394000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.766526</v>
+        <v>3.7665259999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.422000</v>
+        <v>960.42200000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.419700</v>
+        <v>-80.419700000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>13570.013559</v>
+        <v>13570.013559000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.769448</v>
+        <v>3.7694480000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.506000</v>
+        <v>965.50599999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.124800</v>
+        <v>-80.124799999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>13580.497010</v>
+        <v>13580.497009999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.772360</v>
+        <v>3.7723599999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.477000</v>
+        <v>973.47699999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.222700</v>
+        <v>-88.222700000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>13591.185759</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.775329</v>
+        <v>3.7753290000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.805000</v>
+        <v>982.80499999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.409000</v>
+        <v>-103.40900000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>13602.581840</v>
+        <v>13602.581840000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.778495</v>
+        <v>3.7784949999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.335000</v>
+        <v>994.33500000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.176000</v>
+        <v>-125.176</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>13613.336630</v>
+        <v>13613.33663</v>
       </c>
       <c r="AZ11" s="1">
         <v>3.781482</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.119000</v>
+        <v>-144.119</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>13624.387458</v>
+        <v>13624.387457999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.784552</v>
+        <v>3.7845520000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.860000</v>
+        <v>1049.8599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.730000</v>
+        <v>-229.73</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>13634.836181</v>
+        <v>13634.836181000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.787454</v>
+        <v>3.7874539999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.035000</v>
+        <v>-367.03500000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>13645.872674</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.790520</v>
+        <v>3.7905199999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.960000</v>
+        <v>1261.96</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.668000</v>
+        <v>-579.66800000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>13656.584798</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.793496</v>
+        <v>3.7934960000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1410.440000</v>
+        <v>1410.44</v>
       </c>
       <c r="BV11" s="1">
-        <v>-807.186000</v>
+        <v>-807.18600000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>13667.143099</v>
+        <v>13667.143099000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.796429</v>
+        <v>3.7964289999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1044.780000</v>
+        <v>-1044.78</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>13678.929532</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.799703</v>
+        <v>3.7997030000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1989.890000</v>
+        <v>1989.89</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1599.940000</v>
+        <v>-1599.94</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>13507.334589</v>
       </c>
       <c r="B12" s="1">
-        <v>3.752037</v>
+        <v>3.7520370000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>901.927000</v>
+        <v>901.92700000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.957000</v>
+        <v>-194.95699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>13517.866143</v>
+        <v>13517.866142999999</v>
       </c>
       <c r="G12" s="1">
-        <v>3.754963</v>
+        <v>3.7549630000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>918.812000</v>
+        <v>918.81200000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.344000</v>
+        <v>-165.34399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>13528.305475</v>
+        <v>13528.305474999999</v>
       </c>
       <c r="L12" s="1">
         <v>3.757863</v>
       </c>
       <c r="M12" s="1">
-        <v>940.630000</v>
+        <v>940.63</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.446000</v>
+        <v>-118.446</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>13538.779499</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.760772</v>
+        <v>3.7607719999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>947.030000</v>
+        <v>947.03</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.235000</v>
+        <v>-103.235</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>13549.321926</v>
+        <v>13549.321926000001</v>
       </c>
       <c r="V12" s="1">
-        <v>3.763701</v>
+        <v>3.7637010000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>953.378000</v>
+        <v>953.37800000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.642100</v>
+        <v>-89.642099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>13559.843560</v>
+        <v>13559.843559999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.766623</v>
+        <v>3.7666230000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.484000</v>
+        <v>960.48400000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.489700</v>
+        <v>-80.489699999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>13570.356762</v>
+        <v>13570.356761999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.769544</v>
+        <v>3.7695439999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.479000</v>
+        <v>965.47900000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.116800</v>
+        <v>-80.116799999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>13581.191870</v>
+        <v>13581.191870000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.772553</v>
+        <v>3.7725529999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.446000</v>
+        <v>973.44600000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.189500</v>
+        <v>-88.189499999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>13591.905963</v>
+        <v>13591.905962999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.775529</v>
+        <v>3.7755290000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.779000</v>
+        <v>982.779</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.388000</v>
+        <v>-103.38800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>13602.973183</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.778604</v>
+        <v>3.7786040000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.322000</v>
+        <v>994.322</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.181000</v>
+        <v>-125.181</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>13613.695729</v>
+        <v>13613.695728999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.781582</v>
+        <v>3.7815820000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.119000</v>
+        <v>-144.119</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>13624.746593</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.784652</v>
+        <v>3.7846519999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.830000</v>
+        <v>1049.83</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.735000</v>
+        <v>-229.73500000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>13635.524629</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.787646</v>
+        <v>3.7876460000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.830000</v>
+        <v>1129.83</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.035000</v>
+        <v>-367.03500000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>13646.316582</v>
+        <v>13646.316581999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.790643</v>
+        <v>3.7906430000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.010000</v>
+        <v>1262.01</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.700000</v>
+        <v>-579.70000000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>13656.710744</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.793531</v>
+        <v>3.7935310000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1410.390000</v>
+        <v>1410.39</v>
       </c>
       <c r="BV12" s="1">
-        <v>-807.146000</v>
+        <v>-807.14599999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>13667.568170</v>
+        <v>13667.56817</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.796547</v>
+        <v>3.7965469999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1574.430000</v>
+        <v>1574.43</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1044.760000</v>
+        <v>-1044.76</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>13679.446858</v>
+        <v>13679.446857999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.799846</v>
+        <v>3.7998460000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1990.840000</v>
+        <v>1990.84</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1598.960000</v>
+        <v>-1598.96</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>13507.755197</v>
       </c>
@@ -3308,43 +3724,43 @@
         <v>3.752154</v>
       </c>
       <c r="C13" s="1">
-        <v>902.054000</v>
+        <v>902.05399999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.015000</v>
+        <v>-195.01499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>13518.131505</v>
+        <v>13518.131504999999</v>
       </c>
       <c r="G13" s="1">
-        <v>3.755037</v>
+        <v>3.7550370000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>918.980000</v>
+        <v>918.98</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.108000</v>
+        <v>-165.108</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>13528.583730</v>
+        <v>13528.58373</v>
       </c>
       <c r="L13" s="1">
-        <v>3.757940</v>
+        <v>3.7579400000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>940.746000</v>
+        <v>940.74599999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.337000</v>
+        <v>-118.337</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>13539.130164</v>
@@ -3353,103 +3769,103 @@
         <v>3.760869</v>
       </c>
       <c r="R13" s="1">
-        <v>947.048000</v>
+        <v>947.048</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.209000</v>
+        <v>-103.209</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>13549.670645</v>
       </c>
       <c r="V13" s="1">
-        <v>3.763797</v>
+        <v>3.7637969999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>953.422000</v>
+        <v>953.42200000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.695800</v>
+        <v>-89.695800000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>13560.190264</v>
+        <v>13560.190264000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.766720</v>
+        <v>3.7667199999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.555000</v>
+        <v>960.55499999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.409200</v>
+        <v>-80.409199999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>13571.039753</v>
+        <v>13571.039752999999</v>
       </c>
       <c r="AF13" s="1">
         <v>3.769733</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.432000</v>
+        <v>965.43200000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.187800</v>
+        <v>-80.187799999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>13581.540556</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.772650</v>
+        <v>3.7726500000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.463000</v>
+        <v>973.46299999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.217900</v>
+        <v>-88.2179</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>13592.265583</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.775629</v>
+        <v>3.7756289999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.766000</v>
+        <v>982.76599999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.404000</v>
+        <v>-103.404</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>13603.334805</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.778704</v>
+        <v>3.7787039999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.348000</v>
+        <v>994.34799999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.166000</v>
+        <v>-125.166</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>13614.375216</v>
@@ -3458,270 +3874,270 @@
         <v>3.781771</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.119000</v>
+        <v>-144.119</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>13625.428067</v>
+        <v>13625.428067000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.784841</v>
+        <v>3.7848410000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.850000</v>
+        <v>1049.8499999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.713000</v>
+        <v>-229.71299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>13635.964611</v>
+        <v>13635.964610999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.787768</v>
+        <v>3.7877679999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.058000</v>
+        <v>-367.05799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>13646.637990</v>
+        <v>13646.637989999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.790733</v>
+        <v>3.7907329999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.980000</v>
+        <v>1261.98</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.647000</v>
+        <v>-579.64700000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>13657.145767</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.793652</v>
+        <v>3.7936519999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1410.450000</v>
+        <v>1410.45</v>
       </c>
       <c r="BV13" s="1">
-        <v>-807.132000</v>
+        <v>-807.13199999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>13667.986297</v>
+        <v>13667.986296999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.796663</v>
+        <v>3.7966630000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1044.740000</v>
+        <v>-1044.74</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>13679.969145</v>
+        <v>13679.969144999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.799991</v>
+        <v>3.7999909999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1989.240000</v>
+        <v>1989.24</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1597.850000</v>
+        <v>-1597.85</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>13508.035469</v>
       </c>
       <c r="B14" s="1">
-        <v>3.752232</v>
+        <v>3.7522319999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>901.788000</v>
+        <v>901.78800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.038000</v>
+        <v>-195.03800000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>13518.474735</v>
       </c>
       <c r="G14" s="1">
-        <v>3.755132</v>
+        <v>3.7551320000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>918.741000</v>
+        <v>918.74099999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.000000</v>
+        <v>-165</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>13528.930401</v>
       </c>
       <c r="L14" s="1">
-        <v>3.758036</v>
+        <v>3.7580360000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>940.723000</v>
+        <v>940.72299999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.352000</v>
+        <v>-118.352</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>13539.476835</v>
+        <v>13539.476834999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.760966</v>
+        <v>3.7609659999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>947.069000</v>
+        <v>947.06899999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.198000</v>
+        <v>-103.19799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>13550.365541</v>
+        <v>13550.365540999999</v>
       </c>
       <c r="V14" s="1">
-        <v>3.763990</v>
+        <v>3.7639900000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>953.396000</v>
+        <v>953.39599999999996</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.665100</v>
+        <v>-89.665099999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>13560.886648</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.766913</v>
+        <v>3.7669130000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.486000</v>
+        <v>960.48599999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.379900</v>
+        <v>-80.379900000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>13571.384473</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.769829</v>
+        <v>3.7698290000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.511000</v>
+        <v>965.51099999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.156500</v>
+        <v>-80.156499999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>13581.891723</v>
+        <v>13581.891723000001</v>
       </c>
       <c r="AK14" s="1">
         <v>3.772748</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.455000</v>
+        <v>973.45500000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.216200</v>
+        <v>-88.216200000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>13592.626141</v>
+        <v>13592.626141000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.775729</v>
+        <v>3.7757290000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.779000</v>
+        <v>982.779</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.406000</v>
+        <v>-103.40600000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>13604.014286</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.778893</v>
+        <v>3.7788930000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.358000</v>
+        <v>994.35799999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.173000</v>
+        <v>-125.173</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>13614.801775</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.781889</v>
+        <v>3.7818890000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.126000</v>
+        <v>-144.126</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>13625.861105</v>
@@ -3730,58 +4146,58 @@
         <v>3.784961</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.850000</v>
+        <v>1049.8499999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.713000</v>
+        <v>-229.71299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>13636.336580</v>
+        <v>13636.336579999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>3.787871</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.830000</v>
+        <v>1129.83</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.031000</v>
+        <v>-367.03100000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>13647.042261</v>
+        <v>13647.042261000001</v>
       </c>
       <c r="BO14" s="1">
         <v>3.790845</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.990000</v>
+        <v>1261.99</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.689000</v>
+        <v>-579.68899999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>13657.576263</v>
+        <v>13657.576263000001</v>
       </c>
       <c r="BT14" s="1">
         <v>3.793771</v>
       </c>
       <c r="BU14" s="1">
-        <v>1410.460000</v>
+        <v>1410.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-807.064000</v>
+        <v>-807.06399999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>13668.429224</v>
@@ -3790,377 +4206,377 @@
         <v>3.796786</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1574.660000</v>
+        <v>1574.66</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1044.740000</v>
+        <v>-1044.74</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>13680.484986</v>
+        <v>13680.484985999999</v>
       </c>
       <c r="CD14" s="1">
         <v>3.800135</v>
       </c>
       <c r="CE14" s="1">
-        <v>1988.550000</v>
+        <v>1988.55</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1599.160000</v>
+        <v>-1599.16</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>13508.376189</v>
+        <v>13508.376189000001</v>
       </c>
       <c r="B15" s="1">
-        <v>3.752327</v>
+        <v>3.7523270000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>902.056000</v>
+        <v>902.05600000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.098000</v>
+        <v>-195.09800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>13518.828878</v>
       </c>
       <c r="G15" s="1">
-        <v>3.755230</v>
+        <v>3.7552300000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>919.083000</v>
+        <v>919.08299999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.561000</v>
+        <v>-165.56100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>13529.278097</v>
       </c>
       <c r="L15" s="1">
-        <v>3.758133</v>
+        <v>3.7581329999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>940.746000</v>
+        <v>940.74599999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.436000</v>
+        <v>-118.43600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>13540.175201</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.761160</v>
+        <v>3.7611599999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>947.067000</v>
+        <v>947.06700000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.220000</v>
+        <v>-103.22</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>13550.707253</v>
       </c>
       <c r="V15" s="1">
-        <v>3.764085</v>
+        <v>3.7640850000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.342000</v>
+        <v>953.34199999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.629600</v>
+        <v>-89.629599999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>13561.235832</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.767010</v>
+        <v>3.76701</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.467000</v>
+        <v>960.46699999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.277400</v>
+        <v>-80.2774</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>13571.726750</v>
+        <v>13571.72675</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.769924</v>
+        <v>3.7699240000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.465000</v>
+        <v>965.46500000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.150900</v>
+        <v>-80.150899999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>13582.549914</v>
+        <v>13582.549913999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.772931</v>
+        <v>3.7729309999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.455000</v>
+        <v>973.45500000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.196700</v>
+        <v>-88.196700000000007</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>13593.296268</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.775916</v>
+        <v>3.7759160000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.782000</v>
+        <v>982.78200000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.409000</v>
+        <v>-103.40900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>13604.465180</v>
+        <v>13604.465179999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.779018</v>
+        <v>3.7790180000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.345000</v>
+        <v>994.34500000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.192000</v>
+        <v>-125.19199999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>13615.181711</v>
+        <v>13615.181710999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.781995</v>
+        <v>3.7819950000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.131000</v>
+        <v>-144.131</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>13626.223152</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.785062</v>
+        <v>3.7850619999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.850000</v>
+        <v>1049.8499999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.718000</v>
+        <v>-229.71799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>13636.717012</v>
+        <v>13636.717011999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.787977</v>
+        <v>3.7879770000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.780000</v>
+        <v>1129.78</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.048000</v>
+        <v>-367.048</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>13647.466836</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.790963</v>
+        <v>3.7909630000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.020000</v>
+        <v>1262.02</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.708000</v>
+        <v>-579.70799999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>13657.988966</v>
+        <v>13657.988966000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.793886</v>
+        <v>3.7938860000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1410.350000</v>
+        <v>1410.35</v>
       </c>
       <c r="BV15" s="1">
-        <v>-807.081000</v>
+        <v>-807.08100000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>13668.852840</v>
+        <v>13668.85284</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.796904</v>
+        <v>3.7969040000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1574.580000</v>
+        <v>1574.58</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1044.800000</v>
+        <v>-1044.8</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>13681.004296</v>
+        <v>13681.004295999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.800279</v>
+        <v>3.8002790000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1988.560000</v>
+        <v>1988.56</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1598.820000</v>
+        <v>-1598.82</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>13508.719452</v>
+        <v>13508.719451999999</v>
       </c>
       <c r="B16" s="1">
-        <v>3.752422</v>
+        <v>3.7524220000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>902.037000</v>
+        <v>902.03700000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.903000</v>
+        <v>-194.90299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>13519.515837</v>
+        <v>13519.515837000001</v>
       </c>
       <c r="G16" s="1">
-        <v>3.755421</v>
+        <v>3.7554210000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>918.957000</v>
+        <v>918.95699999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.278000</v>
+        <v>-165.27799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>13529.971007</v>
       </c>
       <c r="L16" s="1">
-        <v>3.758325</v>
+        <v>3.7583250000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.581000</v>
+        <v>940.58100000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.422000</v>
+        <v>-118.422</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>13540.520947</v>
+        <v>13540.520947000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.761256</v>
+        <v>3.7612559999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>947.050000</v>
+        <v>947.05</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.225000</v>
+        <v>-103.22499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>13551.054451</v>
       </c>
       <c r="V16" s="1">
-        <v>3.764182</v>
+        <v>3.7641819999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>953.418000</v>
+        <v>953.41800000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.687400</v>
+        <v>-89.687399999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>13561.583557</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.767107</v>
+        <v>3.7671070000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.500000</v>
+        <v>960.5</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.407600</v>
+        <v>-80.407600000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>13572.388375</v>
@@ -4169,360 +4585,360 @@
         <v>3.770108</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.477000</v>
+        <v>965.47699999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.156300</v>
+        <v>-80.156300000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>13582.923898</v>
+        <v>13582.923897999999</v>
       </c>
       <c r="AK16" s="1">
         <v>3.773034</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.453000</v>
+        <v>973.45299999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.253700</v>
+        <v>-88.253699999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>13593.733211</v>
+        <v>13593.733211000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.776037</v>
+        <v>3.7760370000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.795000</v>
+        <v>982.79499999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.420000</v>
+        <v>-103.42</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>13604.828222</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.779119</v>
+        <v>3.7791190000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.345000</v>
+        <v>994.34500000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.199000</v>
+        <v>-125.199</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>13615.539327</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.782094</v>
+        <v>3.7820939999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.131000</v>
+        <v>-144.131</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>13626.582753</v>
+        <v>13626.582753000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.785162</v>
+        <v>3.7851620000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.724000</v>
+        <v>-229.72399999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>13637.139603</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.788094</v>
+        <v>3.7880940000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.028000</v>
+        <v>-367.02800000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>13647.847270</v>
+        <v>13647.84727</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.791069</v>
+        <v>3.7910689999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.990000</v>
+        <v>1261.99</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.659000</v>
+        <v>-579.65899999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>13658.419494</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.794005</v>
+        <v>3.7940049999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1410.420000</v>
+        <v>1410.42</v>
       </c>
       <c r="BV16" s="1">
-        <v>-807.009000</v>
+        <v>-807.00900000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>13669.277879</v>
+        <v>13669.277878999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.797022</v>
+        <v>3.7970220000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1574.480000</v>
+        <v>1574.48</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1044.810000</v>
+        <v>-1044.81</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>13681.553863</v>
+        <v>13681.553862999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.800432</v>
+        <v>3.8004319999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1989.840000</v>
+        <v>1989.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1598.010000</v>
+        <v>-1598.01</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>13509.400923</v>
+        <v>13509.400922999999</v>
       </c>
       <c r="B17" s="1">
-        <v>3.752611</v>
+        <v>3.7526109999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>902.014000</v>
+        <v>902.01400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.898000</v>
+        <v>-194.898</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>13519.860062</v>
       </c>
       <c r="G17" s="1">
-        <v>3.755517</v>
+        <v>3.7555170000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>918.995000</v>
+        <v>918.995</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.634000</v>
+        <v>-164.63399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>13530.369295</v>
       </c>
       <c r="L17" s="1">
-        <v>3.758436</v>
+        <v>3.7584360000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>940.613000</v>
+        <v>940.61300000000006</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.457000</v>
+        <v>-118.45699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>13540.869137</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.761353</v>
+        <v>3.7613530000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>947.058000</v>
+        <v>947.05799999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.183000</v>
+        <v>-103.18300000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>13551.704242</v>
       </c>
       <c r="V17" s="1">
-        <v>3.764362</v>
+        <v>3.7643620000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>953.301000</v>
+        <v>953.30100000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.637200</v>
+        <v>-89.637200000000007</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>13562.242712</v>
+        <v>13562.242711999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.767290</v>
+        <v>3.76729</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.589000</v>
+        <v>960.58900000000006</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.426400</v>
+        <v>-80.426400000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>13572.758391</v>
+        <v>13572.758390999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.770211</v>
+        <v>3.7702110000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.479000</v>
+        <v>965.47900000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.179400</v>
+        <v>-80.179400000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>13583.284489</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.773135</v>
+        <v>3.7731349999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.461000</v>
+        <v>973.46100000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.232300</v>
+        <v>-88.232299999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>13594.092811</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.776137</v>
+        <v>3.7761369999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.771000</v>
+        <v>982.77099999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.411000</v>
+        <v>-103.411</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>13605.193277</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.779220</v>
+        <v>3.77922</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.356000</v>
+        <v>994.35599999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.175000</v>
+        <v>-125.175</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>13615.960464</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.782211</v>
+        <v>3.7822110000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.112000</v>
+        <v>-144.11199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>13627.012287</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.785281</v>
+        <v>3.7852809999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.708000</v>
+        <v>-229.708</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>13637.485879</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.788191</v>
+        <v>3.7881909999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.053000</v>
+        <v>-367.053</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>13648.266888</v>
@@ -4531,135 +4947,135 @@
         <v>3.791185</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.970000</v>
+        <v>1261.97</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.717000</v>
+        <v>-579.71699999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>13658.846053</v>
+        <v>13658.846052999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.794124</v>
+        <v>3.7941240000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="BV17" s="1">
-        <v>-807.041000</v>
+        <v>-807.04100000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>13669.727255</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.797146</v>
+        <v>3.7971460000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1574.520000</v>
+        <v>1574.52</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1044.740000</v>
+        <v>-1044.74</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>13682.082600</v>
+        <v>13682.0826</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.800579</v>
+        <v>3.8005789999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1988.590000</v>
+        <v>1988.59</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1598.830000</v>
+        <v>-1598.83</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>13509.747229</v>
+        <v>13509.747229000001</v>
       </c>
       <c r="B18" s="1">
-        <v>3.752708</v>
+        <v>3.7527080000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>902.006000</v>
+        <v>902.00599999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.932000</v>
+        <v>-194.93199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>13520.206797</v>
+        <v>13520.206797000001</v>
       </c>
       <c r="G18" s="1">
-        <v>3.755613</v>
+        <v>3.7556129999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>918.885000</v>
+        <v>918.88499999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.147000</v>
+        <v>-165.14699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>13530.679295</v>
       </c>
       <c r="L18" s="1">
-        <v>3.758522</v>
+        <v>3.7585220000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>940.696000</v>
+        <v>940.69600000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.498000</v>
+        <v>-118.498</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>13541.532289</v>
+        <v>13541.532289000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.761537</v>
+        <v>3.7615370000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>947.063000</v>
+        <v>947.06299999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.144000</v>
+        <v>-103.14400000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>13552.084178</v>
+        <v>13552.084177999999</v>
       </c>
       <c r="V18" s="1">
-        <v>3.764468</v>
+        <v>3.7644679999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>953.387000</v>
+        <v>953.38699999999994</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.625200</v>
+        <v>-89.625200000000007</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>13562.631076</v>
@@ -4668,118 +5084,118 @@
         <v>3.767398</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.579000</v>
+        <v>960.57899999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.488400</v>
+        <v>-80.488399999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>13573.103110</v>
+        <v>13573.10311</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.770306</v>
+        <v>3.7703060000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.479000</v>
+        <v>965.47900000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.176100</v>
+        <v>-80.176100000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>13583.633176</v>
+        <v>13583.633175999999</v>
       </c>
       <c r="AK18" s="1">
         <v>3.773231</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.454000</v>
+        <v>973.45399999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.244900</v>
+        <v>-88.244900000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>13594.454394</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.776237</v>
+        <v>3.7762370000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.763000</v>
+        <v>982.76300000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.414000</v>
+        <v>-103.414</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>13605.622037</v>
+        <v>13605.622036999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.779339</v>
+        <v>3.7793389999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.357000</v>
+        <v>994.35699999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.177000</v>
+        <v>-125.17700000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>13616.257565</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.782294</v>
+        <v>3.7822939999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.133000</v>
+        <v>-144.13300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>13627.304927</v>
+        <v>13627.304926999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.785362</v>
+        <v>3.7853620000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.711000</v>
+        <v>-229.71100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>13637.861778</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.788295</v>
+        <v>3.7882950000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.042000</v>
+        <v>-367.04199999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>13648.664642</v>
@@ -4788,120 +5204,120 @@
         <v>3.791296</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.990000</v>
+        <v>1261.99</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.682000</v>
+        <v>-579.68200000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>13659.259217</v>
+        <v>13659.259217000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.794239</v>
+        <v>3.7942390000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1410.540000</v>
+        <v>1410.54</v>
       </c>
       <c r="BV18" s="1">
-        <v>-807.047000</v>
+        <v>-807.04700000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>13670.158278</v>
+        <v>13670.158278000001</v>
       </c>
       <c r="BY18" s="1">
         <v>3.797266</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.550000</v>
+        <v>1574.55</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1044.690000</v>
+        <v>-1044.69</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>13682.603399</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.800723</v>
+        <v>3.8007230000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1988.840000</v>
+        <v>1988.84</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1598.350000</v>
+        <v>-1598.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>13510.085403</v>
+        <v>13510.085402999999</v>
       </c>
       <c r="B19" s="1">
         <v>3.752802</v>
       </c>
       <c r="C19" s="1">
-        <v>901.826000</v>
+        <v>901.82600000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.030000</v>
+        <v>-195.03</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>13520.867931</v>
+        <v>13520.867931000001</v>
       </c>
       <c r="G19" s="1">
-        <v>3.755797</v>
+        <v>3.7557969999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>918.826000</v>
+        <v>918.82600000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.386000</v>
+        <v>-165.386</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>13531.304254</v>
+        <v>13531.304254000001</v>
       </c>
       <c r="L19" s="1">
         <v>3.758696</v>
       </c>
       <c r="M19" s="1">
-        <v>940.721000</v>
+        <v>940.721</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.629000</v>
+        <v>-118.629</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>13541.914672</v>
+        <v>13541.914672000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.761643</v>
+        <v>3.7616429999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>947.084000</v>
+        <v>947.08399999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.188000</v>
+        <v>-103.188</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>13552.429858</v>
@@ -4910,163 +5326,163 @@
         <v>3.764564</v>
       </c>
       <c r="W19" s="1">
-        <v>953.410000</v>
+        <v>953.41</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.655800</v>
+        <v>-89.655799999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>13562.972819</v>
+        <v>13562.972819000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.767492</v>
+        <v>3.7674919999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.539000</v>
+        <v>960.53899999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.394900</v>
+        <v>-80.394900000000007</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>13573.444358</v>
+        <v>13573.444358000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.770401</v>
+        <v>3.7704010000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.518000</v>
+        <v>965.51800000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.177100</v>
+        <v>-80.177099999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>13584.054312</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.773348</v>
+        <v>3.7733479999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.467000</v>
+        <v>973.46699999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.239900</v>
+        <v>-88.239900000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>13594.880491</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.776356</v>
+        <v>3.7763559999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.789000</v>
+        <v>982.78899999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.416000</v>
+        <v>-103.416</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>13605.923883</v>
+        <v>13605.923882999999</v>
       </c>
       <c r="AU19" s="1">
         <v>3.779423</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.349000</v>
+        <v>994.34900000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.175000</v>
+        <v>-125.175</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>13616.615182</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.782393</v>
+        <v>3.7823929999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.130000</v>
+        <v>-144.13</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>13627.664031</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.785462</v>
+        <v>3.7854619999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.713000</v>
+        <v>-229.71299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>13638.236785</v>
+        <v>13638.236784999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.788399</v>
+        <v>3.7883990000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.850000</v>
+        <v>1129.8499999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.028000</v>
+        <v>-367.02800000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>13649.086242</v>
+        <v>13649.086241999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.791413</v>
+        <v>3.7914129999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.990000</v>
+        <v>1261.99</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.674000</v>
+        <v>-579.67399999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>13659.691204</v>
+        <v>13659.691204000001</v>
       </c>
       <c r="BT19" s="1">
         <v>3.794359</v>
       </c>
       <c r="BU19" s="1">
-        <v>1410.610000</v>
+        <v>1410.61</v>
       </c>
       <c r="BV19" s="1">
-        <v>-806.978000</v>
+        <v>-806.97799999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>13670.579383</v>
@@ -5075,210 +5491,210 @@
         <v>3.797383</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1574.570000</v>
+        <v>1574.57</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1044.790000</v>
+        <v>-1044.79</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>13683.156933</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.800877</v>
+        <v>3.8008769999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1990.060000</v>
+        <v>1990.06</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1597.950000</v>
+        <v>-1597.95</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>13510.736681</v>
       </c>
       <c r="B20" s="1">
-        <v>3.752982</v>
+        <v>3.7529819999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>901.816000</v>
+        <v>901.81600000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.793000</v>
+        <v>-194.79300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>13521.241419</v>
       </c>
       <c r="G20" s="1">
-        <v>3.755900</v>
+        <v>3.7559</v>
       </c>
       <c r="H20" s="1">
-        <v>918.564000</v>
+        <v>918.56399999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.150000</v>
+        <v>-165.15</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>13531.722878</v>
       </c>
       <c r="L20" s="1">
-        <v>3.758812</v>
+        <v>3.7588119999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>940.561000</v>
+        <v>940.56100000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.344000</v>
+        <v>-118.34399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>13542.265841</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.761741</v>
+        <v>3.7617409999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>947.066000</v>
+        <v>947.06600000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.227000</v>
+        <v>-103.227</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>13552.770641</v>
+        <v>13552.770640999999</v>
       </c>
       <c r="V20" s="1">
         <v>3.764659</v>
       </c>
       <c r="W20" s="1">
-        <v>953.448000</v>
+        <v>953.44799999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.656300</v>
+        <v>-89.656300000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>13563.326507</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.767591</v>
+        <v>3.7675909999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.540000</v>
+        <v>960.54</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.346700</v>
+        <v>-80.346699999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>13573.878357</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.770522</v>
+        <v>3.7705220000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.421000</v>
+        <v>965.42100000000005</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.148700</v>
+        <v>-80.148700000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>13584.332569</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.773426</v>
+        <v>3.7734260000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.463000</v>
+        <v>973.46299999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.239400</v>
+        <v>-88.239400000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>13595.175577</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.776438</v>
+        <v>3.7764380000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.793000</v>
+        <v>982.79300000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.418000</v>
+        <v>-103.41800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>13606.288572</v>
+        <v>13606.288571999999</v>
       </c>
       <c r="AU20" s="1">
         <v>3.779525</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.353000</v>
+        <v>994.35299999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.182000</v>
+        <v>-125.182</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>13616.975276</v>
+        <v>13616.975275999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.782493</v>
+        <v>3.7824930000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.123000</v>
+        <v>-144.12299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>13628.027103</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.785563</v>
+        <v>3.7855629999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.870000</v>
+        <v>1049.8699999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.721000</v>
+        <v>-229.721</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>13638.989185</v>
@@ -5287,195 +5703,195 @@
         <v>3.788608</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.021000</v>
+        <v>-367.02100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>13649.482049</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.791523</v>
+        <v>3.7915230000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.970000</v>
+        <v>1261.97</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.701000</v>
+        <v>-579.70100000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>13660.117268</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.794477</v>
+        <v>3.7944770000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="BV20" s="1">
-        <v>-806.909000</v>
+        <v>-806.90899999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>13670.999776</v>
+        <v>13670.999776000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.797500</v>
+        <v>3.7974999999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1574.500000</v>
+        <v>1574.5</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1044.640000</v>
+        <v>-1044.6400000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>13684.000134</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.801111</v>
+        <v>3.8011110000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1988.640000</v>
+        <v>1988.64</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1598.720000</v>
+        <v>-1598.72</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>13511.109145</v>
       </c>
       <c r="B21" s="1">
-        <v>3.753086</v>
+        <v>3.7530860000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>901.861000</v>
+        <v>901.86099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.035000</v>
+        <v>-195.035</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>13521.585676</v>
+        <v>13521.585676000001</v>
       </c>
       <c r="G21" s="1">
-        <v>3.755996</v>
+        <v>3.7559960000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>918.517000</v>
+        <v>918.51700000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.423000</v>
+        <v>-165.423</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>13532.066109</v>
+        <v>13532.066108999999</v>
       </c>
       <c r="L21" s="1">
-        <v>3.758907</v>
+        <v>3.7589070000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>940.688000</v>
+        <v>940.68799999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.252000</v>
+        <v>-118.252</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>13542.612079</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.761837</v>
+        <v>3.7618369999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>947.049000</v>
+        <v>947.04899999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.212000</v>
+        <v>-103.212</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>13553.191217</v>
       </c>
       <c r="V21" s="1">
-        <v>3.764775</v>
+        <v>3.7647750000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>953.355000</v>
+        <v>953.35500000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.678500</v>
+        <v>-89.6785</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>13563.792707</v>
+        <v>13563.792707000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.767720</v>
+        <v>3.7677200000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.426000</v>
+        <v>960.42600000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.431900</v>
+        <v>-80.431899999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>13574.157616</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.770599</v>
+        <v>3.7705989999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.442000</v>
+        <v>965.44200000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.119200</v>
+        <v>-80.119200000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>13584.685192</v>
+        <v>13584.685192000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.773524</v>
+        <v>3.7735240000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.454000</v>
+        <v>973.45399999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.247000</v>
+        <v>-88.247</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>13595.535177</v>
@@ -5484,285 +5900,285 @@
         <v>3.776538</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.776000</v>
+        <v>982.77599999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.438000</v>
+        <v>-103.438</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>13606.652010</v>
+        <v>13606.65201</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.779626</v>
+        <v>3.7796259999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.351000</v>
+        <v>994.351</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.179000</v>
+        <v>-125.179</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>13617.695435</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.782693</v>
+        <v>3.7826930000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.130000</v>
+        <v>-144.13</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>13628.748783</v>
+        <v>13628.748782999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.785764</v>
+        <v>3.7857639999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.850000</v>
+        <v>1049.8499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.701000</v>
+        <v>-229.70099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>13639.361183</v>
+        <v>13639.361183000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.788711</v>
+        <v>3.7887110000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.027000</v>
+        <v>-367.02699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>13649.905175</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.791640</v>
+        <v>3.7916400000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.000000</v>
+        <v>1262</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.682000</v>
+        <v>-579.68200000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>13660.528985</v>
+        <v>13660.528985000001</v>
       </c>
       <c r="BT21" s="1">
         <v>3.794591</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="BV21" s="1">
-        <v>-806.907000</v>
+        <v>-806.90700000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>13671.757380</v>
+        <v>13671.757379999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.797710</v>
+        <v>3.7977099999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1574.490000</v>
+        <v>1574.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1044.730000</v>
+        <v>-1044.73</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>13684.234771</v>
+        <v>13684.234770999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.801176</v>
+        <v>3.8011759999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1989.450000</v>
+        <v>1989.45</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1600.100000</v>
+        <v>-1600.1</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>13511.455384</v>
+        <v>13511.455384000001</v>
       </c>
       <c r="B22" s="1">
-        <v>3.753182</v>
+        <v>3.7531819999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>901.877000</v>
+        <v>901.87699999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.985000</v>
+        <v>-194.98500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>13521.929635</v>
       </c>
       <c r="G22" s="1">
-        <v>3.756092</v>
+        <v>3.7560920000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>918.923000</v>
+        <v>918.923</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.145000</v>
+        <v>-165.14500000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>13532.483245</v>
+        <v>13532.483244999999</v>
       </c>
       <c r="L22" s="1">
         <v>3.759023</v>
       </c>
       <c r="M22" s="1">
-        <v>940.569000</v>
+        <v>940.56899999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.378000</v>
+        <v>-118.378</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>13543.034639</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.761954</v>
+        <v>3.7619539999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>947.004000</v>
+        <v>947.00400000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.236000</v>
+        <v>-103.236</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>13553.470000</v>
+        <v>13553.47</v>
       </c>
       <c r="V22" s="1">
         <v>3.764853</v>
       </c>
       <c r="W22" s="1">
-        <v>953.341000</v>
+        <v>953.34100000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.653700</v>
+        <v>-89.653700000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>13564.033800</v>
+        <v>13564.033799999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.767787</v>
+        <v>3.7677870000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.494000</v>
+        <v>960.49400000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.399100</v>
+        <v>-80.399100000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>13574.500340</v>
+        <v>13574.500340000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.770695</v>
+        <v>3.7706949999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.498000</v>
+        <v>965.49800000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.133100</v>
+        <v>-80.133099999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>13585.033383</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.773620</v>
+        <v>3.7736200000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.470000</v>
+        <v>973.47</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.230200</v>
+        <v>-88.230199999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>13595.887833</v>
+        <v>13595.887833000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.776636</v>
+        <v>3.7766359999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.777000</v>
+        <v>982.77700000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.404000</v>
+        <v>-103.404</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>13607.380633</v>
+        <v>13607.380633000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.779828</v>
+        <v>3.7798280000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.342000</v>
+        <v>994.34199999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.168000</v>
+        <v>-125.16800000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>13618.069916</v>
@@ -5771,58 +6187,58 @@
         <v>3.782797</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.107000</v>
+        <v>-144.107</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>13629.109906</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.785864</v>
+        <v>3.7858640000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.860000</v>
+        <v>1049.8599999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.723000</v>
+        <v>-229.72300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>13639.737648</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.788816</v>
+        <v>3.7888160000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.840000</v>
+        <v>1129.8399999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.030000</v>
+        <v>-367.03</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>13650.601366</v>
+        <v>13650.601366000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.791834</v>
+        <v>3.7918340000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.980000</v>
+        <v>1261.98</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.682000</v>
+        <v>-579.68200000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>13661.268978</v>
@@ -5831,165 +6247,165 @@
         <v>3.794797</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.570000</v>
+        <v>1410.57</v>
       </c>
       <c r="BV22" s="1">
-        <v>-806.993000</v>
+        <v>-806.99300000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>13671.874932</v>
+        <v>13671.874932000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.797743</v>
+        <v>3.7977430000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.570000</v>
+        <v>1574.57</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1044.840000</v>
+        <v>-1044.8399999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>13684.770947</v>
+        <v>13684.770947000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.801325</v>
+        <v>3.8013249999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1990.050000</v>
+        <v>1990.05</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1598.070000</v>
+        <v>-1598.07</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>13511.798087</v>
+        <v>13511.798086999999</v>
       </c>
       <c r="B23" s="1">
-        <v>3.753277</v>
+        <v>3.7532770000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>901.972000</v>
+        <v>901.97199999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.961000</v>
+        <v>-194.96100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>13522.352954</v>
       </c>
       <c r="G23" s="1">
-        <v>3.756209</v>
+        <v>3.7562090000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>918.965000</v>
+        <v>918.96500000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.575000</v>
+        <v>-165.57499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>13532.762493</v>
       </c>
       <c r="L23" s="1">
-        <v>3.759101</v>
+        <v>3.7591009999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>940.557000</v>
+        <v>940.55700000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.360000</v>
+        <v>-118.36</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>13543.319838</v>
+        <v>13543.319837999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.762033</v>
+        <v>3.7620330000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>947.035000</v>
+        <v>947.03499999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.198000</v>
+        <v>-103.19799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>13553.826679</v>
       </c>
       <c r="V23" s="1">
-        <v>3.764952</v>
+        <v>3.7649520000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.398000</v>
+        <v>953.39800000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.658900</v>
+        <v>-89.658900000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>13564.382450</v>
+        <v>13564.382449999999</v>
       </c>
       <c r="AA23" s="1">
         <v>3.767884</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.513000</v>
+        <v>960.51300000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.356600</v>
+        <v>-80.3566</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>13574.845565</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.770790</v>
+        <v>3.7707899999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.499000</v>
+        <v>965.49900000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.168700</v>
+        <v>-80.168700000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>13585.726822</v>
+        <v>13585.726822000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.773813</v>
+        <v>3.7738130000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.467000</v>
+        <v>973.46699999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.213300</v>
+        <v>-88.213300000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>13596.613975</v>
@@ -5998,375 +6414,375 @@
         <v>3.776837</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.772000</v>
+        <v>982.77200000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.426000</v>
+        <v>-103.426</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>13607.772474</v>
+        <v>13607.772473999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.779937</v>
+        <v>3.7799369999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.365000</v>
+        <v>994.36500000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.160000</v>
+        <v>-125.16</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>13618.450346</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.782903</v>
+        <v>3.7829030000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.127000</v>
+        <v>-144.12700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>13629.469995</v>
+        <v>13629.469994999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.785964</v>
+        <v>3.7859639999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.860000</v>
+        <v>1049.8599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.719000</v>
+        <v>-229.71899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>13640.436542</v>
+        <v>13640.436541999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.789010</v>
+        <v>3.7890100000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.019000</v>
+        <v>-367.01900000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>13650.718626</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.791866</v>
+        <v>3.7918660000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.010000</v>
+        <v>1262.01</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.730000</v>
+        <v>-579.73</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>13661.392482</v>
+        <v>13661.392481999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.794831</v>
+        <v>3.7948309999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.650000</v>
+        <v>1410.65</v>
       </c>
       <c r="BV23" s="1">
-        <v>-806.928000</v>
+        <v>-806.928</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>13672.304995</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.797862</v>
+        <v>3.7978619999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.640000</v>
+        <v>1574.64</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1044.800000</v>
+        <v>-1044.8</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>13685.310098</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.801475</v>
+        <v>3.8014749999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1988.340000</v>
+        <v>1988.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1599.290000</v>
+        <v>-1599.29</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>13512.217213</v>
       </c>
       <c r="B24" s="1">
-        <v>3.753394</v>
+        <v>3.7533940000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>902.061000</v>
+        <v>902.06100000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.089000</v>
+        <v>-195.089</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>13522.618809</v>
       </c>
       <c r="G24" s="1">
-        <v>3.756283</v>
+        <v>3.7562829999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>918.728000</v>
+        <v>918.72799999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.154000</v>
+        <v>-165.154</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>13533.105723</v>
+        <v>13533.105723000001</v>
       </c>
       <c r="L24" s="1">
-        <v>3.759196</v>
+        <v>3.7591960000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>940.566000</v>
+        <v>940.56600000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.490000</v>
+        <v>-118.49</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>13543.672493</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.762131</v>
+        <v>3.7621310000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>947.055000</v>
+        <v>947.05499999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.195000</v>
+        <v>-103.19499999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>13554.173793</v>
       </c>
       <c r="V24" s="1">
-        <v>3.765048</v>
+        <v>3.7650480000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>953.437000</v>
+        <v>953.43700000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.700300</v>
+        <v>-89.700299999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>13565.084289</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.768079</v>
+        <v>3.7680790000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.540000</v>
+        <v>960.54</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.136500</v>
+        <v>-80.136499999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>13575.533507</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.770982</v>
+        <v>3.7709820000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.487000</v>
+        <v>965.48699999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.142500</v>
+        <v>-80.142499999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>13586.076965</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.773910</v>
+        <v>3.7739099999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.474000</v>
+        <v>973.47400000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.200900</v>
+        <v>-88.200900000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>13596.975591</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.776938</v>
+        <v>3.7769379999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.789000</v>
+        <v>982.78899999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.406000</v>
+        <v>-103.40600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>13608.140009</v>
+        <v>13608.140009000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.780039</v>
+        <v>3.7800389999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.359000</v>
+        <v>994.35900000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.178000</v>
+        <v>-125.178</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>13619.124906</v>
+        <v>13619.124905999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.783090</v>
+        <v>3.7830900000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.116000</v>
+        <v>-144.11600000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>13629.913884</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.786087</v>
+        <v>3.7860870000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.711000</v>
+        <v>-229.71100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>13640.866577</v>
+        <v>13640.866577000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.789130</v>
+        <v>3.7891300000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.060000</v>
+        <v>-367.06</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>13651.141167</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.791984</v>
+        <v>3.7919839999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.000000</v>
+        <v>1262</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.682000</v>
+        <v>-579.68200000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>13661.817057</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.794949</v>
+        <v>3.7949489999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.650000</v>
+        <v>1410.65</v>
       </c>
       <c r="BV24" s="1">
-        <v>-806.914000</v>
+        <v>-806.91399999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>13672.726099</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.797979</v>
+        <v>3.7979790000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.510000</v>
+        <v>1574.51</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1044.750000</v>
+        <v>-1044.75</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>13685.851234</v>
@@ -6375,287 +6791,287 @@
         <v>3.801625</v>
       </c>
       <c r="CE24" s="1">
-        <v>1990.640000</v>
+        <v>1990.64</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1599.530000</v>
+        <v>-1599.53</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>13512.496951</v>
+        <v>13512.496950999999</v>
       </c>
       <c r="B25" s="1">
-        <v>3.753471</v>
+        <v>3.7534709999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>902.104000</v>
+        <v>902.10400000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.981000</v>
+        <v>-194.98099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>13522.966544</v>
+        <v>13522.966544000001</v>
       </c>
       <c r="G25" s="1">
-        <v>3.756380</v>
+        <v>3.7563800000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>918.993000</v>
+        <v>918.99300000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.418000</v>
+        <v>-165.41800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>13533.452923</v>
+        <v>13533.452923000001</v>
       </c>
       <c r="L25" s="1">
-        <v>3.759292</v>
+        <v>3.7592919999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>940.706000</v>
+        <v>940.70600000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.395000</v>
+        <v>-118.395</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>13544.018701</v>
+        <v>13544.018701000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.762227</v>
+        <v>3.7622270000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>947.101000</v>
+        <v>947.101</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.212000</v>
+        <v>-103.212</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>13554.861248</v>
+        <v>13554.861247999999</v>
       </c>
       <c r="V25" s="1">
-        <v>3.765239</v>
+        <v>3.7652389999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>953.413000</v>
+        <v>953.41300000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.676300</v>
+        <v>-89.676299999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>13565.430496</v>
+        <v>13565.430496000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.768175</v>
+        <v>3.7681749999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.574000</v>
+        <v>960.57399999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.466700</v>
+        <v>-80.466700000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>13575.875251</v>
+        <v>13575.875250999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.771076</v>
+        <v>3.7710759999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.508000</v>
+        <v>965.50800000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.140800</v>
+        <v>-80.140799999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>13586.428629</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.774008</v>
+        <v>3.7740079999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.455000</v>
+        <v>973.45500000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.197400</v>
+        <v>-88.197400000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>13597.632264</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.777120</v>
+        <v>3.77712</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.782000</v>
+        <v>982.78200000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.414000</v>
+        <v>-103.414</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>13608.816055</v>
+        <v>13608.816054999999</v>
       </c>
       <c r="AU25" s="1">
         <v>3.780227</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.349000</v>
+        <v>994.34900000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.174000</v>
+        <v>-125.17400000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>13619.534105</v>
+        <v>13619.534105000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>3.783204</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.094000</v>
+        <v>-144.09399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>13630.193665</v>
+        <v>13630.193665000001</v>
       </c>
       <c r="BE25" s="1">
         <v>3.786165</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.860000</v>
+        <v>1049.8599999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.734000</v>
+        <v>-229.73400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>13641.239069</v>
+        <v>13641.239068999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.789233</v>
+        <v>3.7892329999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.023000</v>
+        <v>-367.02300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>13651.540975</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.792095</v>
+        <v>3.7920950000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.960000</v>
+        <v>1261.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.687000</v>
+        <v>-579.68700000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>13662.239650</v>
+        <v>13662.23965</v>
       </c>
       <c r="BT25" s="1">
         <v>3.795067</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.610000</v>
+        <v>1410.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-806.949000</v>
+        <v>-806.94899999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>13673.148659</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.798097</v>
+        <v>3.7980969999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1574.530000</v>
+        <v>1574.53</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1044.780000</v>
+        <v>-1044.78</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>13686.389393</v>
+        <v>13686.389392999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.801775</v>
+        <v>3.8017750000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1989.300000</v>
+        <v>1989.3</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1597.930000</v>
+        <v>-1597.93</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>13512.837206</v>
       </c>
       <c r="B26" s="1">
-        <v>3.753566</v>
+        <v>3.7535660000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>902.276000</v>
+        <v>902.27599999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.109000</v>
+        <v>-195.10900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>13523.310728</v>
@@ -6664,118 +7080,118 @@
         <v>3.756475</v>
       </c>
       <c r="H26" s="1">
-        <v>918.987000</v>
+        <v>918.98699999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.269000</v>
+        <v>-165.26900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>13534.146826</v>
       </c>
       <c r="L26" s="1">
-        <v>3.759485</v>
+        <v>3.7594850000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>940.657000</v>
+        <v>940.65700000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.595000</v>
+        <v>-118.595</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>13544.714590</v>
+        <v>13544.71459</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.762421</v>
+        <v>3.7624209999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>947.086000</v>
+        <v>947.08600000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.227000</v>
+        <v>-103.227</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>13555.205503</v>
+        <v>13555.205502999999</v>
       </c>
       <c r="V26" s="1">
-        <v>3.765335</v>
+        <v>3.7653349999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>953.397000</v>
+        <v>953.39700000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.661900</v>
+        <v>-89.661900000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>13565.780672</v>
+        <v>13565.780672000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.768272</v>
+        <v>3.7682720000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.516000</v>
+        <v>960.51599999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.406400</v>
+        <v>-80.406400000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>13576.214548</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.771171</v>
+        <v>3.7711709999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.453000</v>
+        <v>965.45299999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.164600</v>
+        <v>-80.164599999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>13587.084868</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.774190</v>
+        <v>3.7741899999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.461000</v>
+        <v>973.46100000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.211300</v>
+        <v>-88.211299999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>13598.087093</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.777246</v>
+        <v>3.7772459999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.780000</v>
+        <v>982.78</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.420000</v>
+        <v>-103.42</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>13609.263943</v>
@@ -6784,88 +7200,88 @@
         <v>3.780351</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.372000</v>
+        <v>994.37199999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.165000</v>
+        <v>-125.16500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>13619.912093</v>
+        <v>13619.912093000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>3.783309</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.090000</v>
+        <v>-144.09</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>13630.555211</v>
+        <v>13630.555211000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.786265</v>
+        <v>3.7862650000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.840000</v>
+        <v>1049.8399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.716000</v>
+        <v>-229.71600000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>13641.616027</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.789338</v>
+        <v>3.7893379999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.033000</v>
+        <v>-367.03300000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>13651.967006</v>
+        <v>13651.967006000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.792213</v>
+        <v>3.7922129999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.020000</v>
+        <v>1262.02</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.668000</v>
+        <v>-579.66800000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>13662.686067</v>
+        <v>13662.686067000001</v>
       </c>
       <c r="BT26" s="1">
         <v>3.795191</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.640000</v>
+        <v>1410.64</v>
       </c>
       <c r="BV26" s="1">
-        <v>-806.832000</v>
+        <v>-806.83199999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>13673.576706</v>
@@ -6874,30 +7290,31 @@
         <v>3.798216</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1574.550000</v>
+        <v>1574.55</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1044.790000</v>
+        <v>-1044.79</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>13686.928050</v>
+        <v>13686.92805</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.801924</v>
+        <v>3.8019240000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1989.010000</v>
+        <v>1989.01</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1600.210000</v>
+        <v>-1600.21</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>